--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
@@ -1,43 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20370" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yearmonth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>empCode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>empName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>depCode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -60,19 +158,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -346,19 +560,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="22.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="10" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="22.5" customHeight="1">
-      <c r="A2" s="1"/>
+    <row r="1" spans="1:9" customFormat="1" ht="40.5" customHeight="1">
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="4" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1"/>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1"/>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20370" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23310" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>title</t>
     <phoneticPr fontId="2"/>
@@ -56,6 +56,9 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -249,6 +252,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,7 +576,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="22.5" customHeight="1"/>
@@ -580,7 +592,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="28.5" customHeight="1">
@@ -590,15 +602,15 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="4" spans="1:9" ht="22.5" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
@@ -609,10 +621,9 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="15" t="s">
@@ -645,14 +656,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23310" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20640" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,11 +225,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -239,29 +260,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="22.5" customHeight="1"/>
@@ -585,7 +585,7 @@
     <col min="2" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="40.5" customHeight="1">
+    <row r="1" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
@@ -595,75 +595,87 @@
       <c r="H1" s="7"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="22.5" customHeight="1"/>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1">
-      <c r="C4" s="17" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="C5" s="9" t="s">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1">
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="13" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1"/>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1">
+    <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D3:H4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20640" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20640" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>code</t>
+    <t>depCode</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -50,15 +50,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>depCode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>code</t>
+    <t>個人コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部門コード</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -565,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,7 +577,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="22.5" customHeight="1"/>
@@ -626,17 +627,17 @@
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="C7" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -658,7 +659,7 @@
     <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
